--- a/整合結果/EPU匯出結果/2025-06-14/2025-06-14_聯合報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-14/2025-06-14_聯合報_EPU檢查結果.xlsx
@@ -2015,17 +2015,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-06-14_1421_聯合國際_歐盟27個成員國批准 收留烏克蘭難民延至2027年3月.txt</t>
+          <t>2025-06-14_1423_聯合國際_WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨.txt</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>俄烏戰爭</t>
         </is>
       </c>
     </row>
@@ -2042,12 +2037,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-06-14_1423_聯合國際_WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨.txt</t>
+          <t>2025-06-14_1423_聯合國際_以色列關全球使領館 促海外國人填問卷通報所在位置.txt</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>緊張、憂心、擔憂</t>
         </is>
       </c>
     </row>
@@ -2064,17 +2064,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-06-14_1423_聯合國際_以色列關全球使領館 促海外國人填問卷通報所在位置.txt</t>
+          <t>2025-06-14_1425_聯合國際_紐時：習近平交手川普「精準施壓、爭取時間」.txt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>經濟、製造業</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>中國商務部</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>緊張、憂心、擔憂</t>
+          <t>緊張、難以預測</t>
         </is>
       </c>
     </row>
@@ -2091,27 +2101,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-06-14_1425_聯合國際_紐時：習近平交手川普「精準施壓、爭取時間」.txt</t>
+          <t>2025-06-14_1426_聯合國際_全美白卡個資 衛生部交給國安部抓非法移民.txt</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>✔ 是</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>經濟、製造業</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>中國商務部</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>緊張、難以預測</t>
+          <t>擔憂</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-06-14_1426_聯合國際_全美白卡個資 衛生部交給國安部抓非法移民.txt</t>
+          <t>2025-06-14_1427_聯合國際_「下波攻擊更猛」川普籲伊朗盡快達核協議.txt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>擔憂</t>
+          <t>糟糕</t>
         </is>
       </c>
     </row>
@@ -2155,17 +2155,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-06-14_1427_聯合國際_「下波攻擊更猛」川普籲伊朗盡快達核協議.txt</t>
+          <t>2025-06-14_1427_聯合國際_印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出.txt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>糟糕</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2177,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-06-14_1427_聯合國際_印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出.txt</t>
+          <t>2025-06-14_1427_聯合國際_美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿.txt</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2204,7 +2199,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-06-14_1427_聯合國際_美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿.txt</t>
+          <t>2025-06-14_1512_聯合國際_早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容.txt</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2226,7 +2221,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-06-14_1512_聯合國際_早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容.txt</t>
+          <t>2025-06-14_1524_聯合國際_死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死.txt</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2248,12 +2243,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-06-14_1524_聯合國際_死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死.txt</t>
+          <t>2025-06-14_1538_聯合國際_身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業.txt</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>金融、美元、商業、經濟</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-06-14_1538_聯合國際_身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業.txt</t>
+          <t>2025-06-14_1601_聯合國際_兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？.txt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2278,9 +2278,14 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>金融、美元、商業、經濟</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>預算</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>失望、緊張、總統大選</t>
         </is>
       </c>
     </row>
@@ -2297,22 +2302,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-06-14_1601_聯合國際_兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？.txt</t>
+          <t>2025-06-14_1612_聯合國際_衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地.txt</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>預算</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>失望、緊張、總統大選</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2324,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-06-14_1612_聯合國際_衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地.txt</t>
+          <t>2025-06-14_1635_聯合國際_以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜.txt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>金融、美元、經濟</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fed、央行、降息、貨幣政策、殖利率、聯準會</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、中東地緣政治、中東戰火、失去信心、失業、地緣政治、地緣政治緊張、政策不確定性、通膨、疑慮、緊張</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2361,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-06-14_1635_聯合國際_以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜.txt</t>
+          <t>2025-06-14_1649_聯合國際_中東衝突加劇 壓抑美股追高！下周再迎Fed考驗.txt</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2361,17 +2371,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>金融、美元、經濟</t>
+          <t>半導體、台積電、股市、美元、海運、能源、經濟</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fed、央行、降息、貨幣政策、殖利率、聯準會</t>
+          <t>Fed、降息、基準利率、殖利率、聯準會</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>不確定、不確定性、中東地緣政治、中東戰火、失去信心、失業、地緣政治、地緣政治緊張、政策不確定性、通膨、疑慮、緊張</t>
+          <t>不安、中東局勢、考驗、局勢不安、受阻、恐怕、通膨、跌幅擴大</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2398,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-06-14_1649_聯合國際_中東衝突加劇 壓抑美股追高！下周再迎Fed考驗.txt</t>
+          <t>2025-06-14_1653_聯合國際_大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動.txt</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>半導體、台積電、股市、美元、海運、能源、經濟</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Fed、降息、基準利率、殖利率、聯準會</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>不安、中東局勢、考驗、局勢不安、受阻、恐怕、通膨、跌幅擴大</t>
+          <t>供應鏈</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-06-14_1653_聯合國際_大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動.txt</t>
+          <t>2025-06-14_1711_聯合國際_員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定.txt</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2433,9 +2433,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>供應鏈</t>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>裁員</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-06-14_1711_聯合國際_員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定.txt</t>
+          <t>2025-06-14_1725_聯合國際_川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億.txt</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2460,9 +2460,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>裁員</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>金融、美元</t>
         </is>
       </c>
     </row>
@@ -2479,17 +2479,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-06-14_1725_聯合國際_川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億.txt</t>
+          <t>2025-06-14_1800_聯合國際_知道出大事？以國空襲前「五角大廈狂買披薩」 爆量訂單預告危機.txt</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>金融、美元</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2501,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-06-14_1800_聯合國際_知道出大事？以國空襲前「五角大廈狂買披薩」 爆量訂單預告危機.txt</t>
+          <t>2025-06-14_1813_聯合國際_日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭.txt</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>關稅政策</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>美國總統大選、總統大選</t>
         </is>
       </c>
     </row>
@@ -2528,27 +2538,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-06-14_1813_聯合國際_日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭.txt</t>
+          <t>2025-06-14_1830_聯合國際_美國德州遭遇洪患 至少10人喪命數人失蹤.txt</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>✔ 是</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>美元</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>關稅政策</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>美國總統大選、總統大選</t>
+          <t>✘ 否</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2560,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-06-14_1830_聯合國際_美國德州遭遇洪患 至少10人喪命數人失蹤.txt</t>
+          <t>2025-06-14_1847_聯合國際_伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷.txt</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2587,7 +2582,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-06-14_1847_聯合國際_伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷.txt</t>
+          <t>2025-06-14_1916_聯合國際_以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗.txt</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2609,7 +2604,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-06-14_1916_聯合國際_以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗.txt</t>
+          <t>2025-06-14_1939_聯合國際_伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空.txt</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2631,12 +2626,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-06-14_1939_聯合國際_伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空.txt</t>
+          <t>2025-06-14_2003_聯合國際_台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀.txt</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>旅遊業</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-06-14_2003_聯合國際_台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀.txt</t>
+          <t>2025-06-14_2009_聯合國際_黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢.txt</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>旅遊業</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-06-14_2009_聯合國際_黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢.txt</t>
+          <t>2025-06-14_2019_聯合國際_台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策.txt</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2688,9 +2688,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>經濟</t>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>地緣政治、俄烏戰爭</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-06-14_2019_聯合國際_台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策.txt</t>
+          <t>2025-06-14_2027_聯合國際_立中外交陷僵局 立陶宛議員：中方人員已明確「道別」.txt</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2715,9 +2715,14 @@
           <t>✘ 否</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>地緣政治、俄烏戰爭</t>
+          <t>俄烏戰爭、惡化</t>
         </is>
       </c>
     </row>
@@ -2734,22 +2739,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-06-14_2027_聯合國際_立中外交陷僵局 立陶宛議員：中方人員已明確「道別」.txt</t>
+          <t>2025-06-14_2033_聯合國際_南非東開普省洪患尋獲更多罹難者 增至86人喪命.txt</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>經濟</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>俄烏戰爭、惡化</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2761,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-06-14_2033_聯合國際_南非東開普省洪患尋獲更多罹難者 增至86人喪命.txt</t>
+          <t>2025-06-14_2049_聯合國際_清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯.txt</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>衰退、隱憂</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-06-14_2049_聯合國際_清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯.txt</t>
+          <t>2025-06-14_2132_聯合國際_南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施.txt</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>衰退、隱憂</t>
+          <t>緊張</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-06-14_2132_聯合國際_南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施.txt</t>
+          <t>2025-06-14_2151_聯合國際_美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看.txt</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>緊張</t>
+          <t>抗議</t>
         </is>
       </c>
     </row>
@@ -2842,17 +2842,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-06-14_2151_聯合國際_美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看.txt</t>
+          <t>2025-06-14_2212_聯合國際_表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵.txt</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>抗議</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2864,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-06-14_2212_聯合國際_表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵.txt</t>
+          <t>2025-06-14_2221_聯合國際_以色列伊朗持續交火 教宗籲雙方展現理性進行對話.txt</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>惡化</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2891,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-06-14_2221_聯合國際_以色列伊朗持續交火 教宗籲雙方展現理性進行對話.txt</t>
+          <t>2025-06-14_2225_聯合國際_中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則.txt</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>台商、供應鏈、商業、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>加徵、加徵關稅、關稅戰</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>惡化</t>
+          <t>不確定、不確定性、地緣政治</t>
         </is>
       </c>
     </row>
@@ -2918,27 +2928,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-06-14_2225_聯合國際_中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則.txt</t>
+          <t>2025-06-14_2239_聯合國際_科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋.txt</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>台商、供應鏈、商業、貿易、經濟</t>
+          <t>半導體、股市、美元</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>加徵、加徵關稅、關稅戰</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>不確定、不確定性、地緣政治</t>
+          <t>殖利率、補貼</t>
         </is>
       </c>
     </row>
@@ -2955,12 +2960,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-06-14_2226_聯合國際_擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線.txt</t>
+          <t>2025-06-14_2330_聯合國際_以色列和伊朗再次互射導彈 核設施暫無洩漏.txt</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>不明</t>
         </is>
       </c>
     </row>
@@ -2977,22 +2987,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-06-14_2239_聯合國際_科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋.txt</t>
+          <t>2025-06-14_2339_聯合國際_美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益.txt</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>半導體、股市、美元</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>殖利率、補貼</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3009,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-06-14_2242_聯合國際_俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換.txt</t>
+          <t>2025-06-14_2350_聯合國際_以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器.txt</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>干擾</t>
         </is>
       </c>
     </row>
@@ -3031,17 +3036,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-06-14_2330_聯合國際_以色列和伊朗再次互射導彈 核設施暫無洩漏.txt</t>
+          <t>2025-06-14_2354_聯合國際_伊朗失算 沒料到以色列提前在美、伊核談判前動手.txt</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>不明</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-06-14_2339_聯合國際_美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益.txt</t>
+          <t>2025-06-14_2359_聯合國際_紐約時報：太陽升起時 伊朗核計畫仍在.txt</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>疑慮、擔憂</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3080,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>聯合國際</t>
+          <t>聯合產經</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-06-14_2350_聯合國際_以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器.txt</t>
+          <t>2025-06-14_0000_聯合產經_消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明.txt</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3088,9 +3093,14 @@
           <t>✘ 否</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>干擾</t>
+          <t>不明</t>
         </is>
       </c>
     </row>
@@ -3102,17 +3112,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>聯合國際</t>
+          <t>聯合產經</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-06-14_2354_聯合國際_伊朗失算 沒料到以色列提前在美、伊核談判前動手.txt</t>
+          <t>2025-06-14_0002_聯合產經_華城奪美星門計畫大單 士電看好未來十年重電產業發展.txt</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>外銷、供應鏈、能源、淨零碳排、電力、綠能</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>淨零、淨零碳排、關稅戰、川普關稅</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>供不應求</t>
         </is>
       </c>
     </row>
@@ -3124,22 +3149,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>聯合國際</t>
+          <t>聯合產經</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-06-14_2359_聯合國際_紐約時報：太陽升起時 伊朗核計畫仍在.txt</t>
+          <t>2025-06-14_0003_聯合產經_張國煒談飛安…我顧得很緊.txt</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>疑慮、擔憂</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3176,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-06-14_0000_聯合產經_消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明.txt</t>
+          <t>2025-06-14_0005_聯合產經_星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢.txt</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3166,12 +3186,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>經濟</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>不明</t>
+          <t>台積電、經濟</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3203,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-06-14_0002_聯合產經_華城奪美星門計畫大單 士電看好未來十年重電產業發展.txt</t>
+          <t>2025-06-14_0008_聯合產經_台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分.txt</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3198,17 +3213,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>外銷、供應鏈、能源、淨零碳排、電力、綠能</t>
+          <t>外匯、外資、美元、匯市、經濟</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>淨零、淨零碳排、關稅戰、川普關稅</t>
+          <t>中央銀行、央行、拋匯</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>供不應求</t>
+          <t>不確定、不確定性、反彈</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3240,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-06-14_0003_聯合產經_張國煒談飛安…我顧得很緊.txt</t>
+          <t>2025-06-14_0018_聯合產經_金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助.txt</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>半導體、外匯、股市、美元、消費市場、能源、景氣、貿易、經濟、經濟成長</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>貿易政策、關稅政策</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>不安、不確定、不確定因素、不確定性、局勢不安、波動</t>
         </is>
       </c>
     </row>
@@ -3247,17 +3277,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-06-14_0005_聯合產經_星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢.txt</t>
+          <t>2025-06-14_0025_聯合產經_美商務部談出口管制 限縮華為AI晶片產量.txt</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>台積電、經濟</t>
+          <t>半導體、商業</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>預算</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>疑慮</t>
         </is>
       </c>
     </row>
@@ -3274,27 +3314,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-06-14_0008_聯合產經_台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分.txt</t>
+          <t>2025-06-14_0027_聯合產經_廣達布局智慧醫療、自駕車 跨步.txt</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>✔ 是</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>外匯、外資、美元、匯市、經濟</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>中央銀行、央行、拋匯</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>不確定、不確定性、反彈</t>
+          <t>✘ 否</t>
         </is>
       </c>
     </row>
@@ -3311,27 +3336,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-06-14_0018_聯合產經_金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助.txt</t>
+          <t>2025-06-14_0029_聯合產經_林百里：人形機器人貴又難做 攻量子電腦…十年磨劍.txt</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>半導體、外匯、股市、美元、消費市場、能源、景氣、貿易、經濟、經濟成長</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>貿易政策、關稅政策</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>不安、不確定、不確定因素、不確定性、局勢不安、波動</t>
+          <t>供應鏈、商業</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3363,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-06-14_0025_聯合產經_美商務部談出口管制 限縮華為AI晶片產量.txt</t>
+          <t>2025-06-14_0046_聯合產經_中東緊張升溫「嚇」到亞股 台股跌破5日線.txt</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>半導體、商業</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>預算</t>
+          <t>台股、外資</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>疑慮</t>
+          <t>中東局勢、反彈、地緣政治、地緣政治緊張、緊張、戰爭風險</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3395,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-06-14_0027_聯合產經_廣達布局智慧醫療、自駕車 跨步.txt</t>
+          <t>2025-06-14_0051_聯合產經_人型機器人「貴又難做」 林百里專心攻量子電腦.txt</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>商業</t>
         </is>
       </c>
     </row>
@@ -3407,17 +3422,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-06-14_0029_聯合產經_林百里：人形機器人貴又難做 攻量子電腦…十年磨劍.txt</t>
+          <t>2025-06-14_0056_聯合產經_蔡明興：台幣升值有利有弊 但別太快太猛.txt</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>供應鏈、商業</t>
+          <t>不動產、台股、外資、美元</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>央行</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>通膨</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3459,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-06-14_0046_聯合產經_中東緊張升溫「嚇」到亞股 台股跌破5日線.txt</t>
+          <t>2025-06-14_0100_聯合產經_金控改選 新一代接班開啟新局.txt</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3444,12 +3469,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>台股、外資</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>中東局勢、反彈、地緣政治、地緣政治緊張、緊張、戰爭風險</t>
+          <t>不動產、房地產、金融、金融機構、經濟、數位轉型</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3486,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-06-14_0051_聯合產經_人型機器人「貴又難做」 林百里專心攻量子電腦.txt</t>
+          <t>2025-06-14_0153_聯合產經_企業生日快樂／葡萄王現代化管理 鞏固利基.txt</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3476,7 +3496,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>商業</t>
+          <t>消費市場</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3513,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-06-14_0056_聯合產經_蔡明興：台幣升值有利有弊 但別太快太猛.txt</t>
+          <t>2025-06-14_0155_聯合產經_企業生日快樂／葡萄王擴展海外布局 衝營運.txt</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3503,17 +3523,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>不動產、台股、外資、美元</t>
+          <t>外銷、美元、商業</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>央行</t>
+          <t>緊縮、關稅政策</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>通膨</t>
+          <t>難題</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3550,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-06-14_0100_聯合產經_金控改選 新一代接班開啟新局.txt</t>
+          <t>2025-06-14_0159_聯合產經_企業生日快樂／葡萄王 強打健康牌 開創藍海.txt</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3540,7 +3560,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>不動產、房地產、金融、金融機構、經濟、數位轉型</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3577,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-06-14_0153_聯合產經_企業生日快樂／葡萄王現代化管理 鞏固利基.txt</t>
+          <t>2025-06-14_0220_聯合產經_台灣大挺生物多樣性 看見成果.txt</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3567,7 +3587,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>消費市場</t>
+          <t>能源</t>
         </is>
       </c>
     </row>
@@ -3584,27 +3604,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-06-14_0155_聯合產經_企業生日快樂／葡萄王擴展海外布局 衝營運.txt</t>
+          <t>2025-06-14_0221_聯合產經_玉山金衝刺證券投資.txt</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>外銷、美元、商業</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>緊縮、關稅政策</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>難題</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -3621,17 +3631,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-06-14_0159_聯合產經_企業生日快樂／葡萄王 強打健康牌 開創藍海.txt</t>
+          <t>2025-06-14_0221_聯合產經_翁健升任元大金董座.txt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3653,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-06-14_0220_聯合產經_台灣大挺生物多樣性 看見成果.txt</t>
+          <t>2025-06-14_0223_聯合產經_凱基金三措 施降低匯兌風險.txt</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3658,7 +3663,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>能源</t>
+          <t>石化、美元</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>殖利率</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3685,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-06-14_0221_聯合產經_玉山金衝刺證券投資.txt</t>
+          <t>2025-06-14_0600_聯合產經_消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明.txt</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3686,6 +3696,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>經濟</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>不明</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3717,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-06-14_0221_聯合產經_翁健升任元大金董座.txt</t>
+          <t>2025-06-14_0900_聯合產經_小宅成房市主流 低總價搶進是聰明布局還是空手接刀？.txt</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>房市</t>
         </is>
       </c>
     </row>
@@ -3724,22 +3744,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-06-14_0223_聯合產經_凱基金三措 施降低匯兌風險.txt</t>
+          <t>2025-06-14_1014_聯合產經_台積電赴美 呂桔誠：台美各有長處、應攜手培育人才.txt</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>石化、美元</t>
+          <t>半導體、半導體產業、台商、台積電、供應鏈、金融、美元、能源、商業、經貿、經濟、製造業</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>關稅政策</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、擔憂</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3781,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-06-14_0600_聯合產經_消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明.txt</t>
+          <t>2025-06-14_1106_聯合產經_出生人數又破底！專家：3種房子房價將加速鬆動.txt</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3766,12 +3791,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>房市、房價</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>少子化、負面影響</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3813,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-06-14_0900_聯合產經_小宅成房市主流 低總價搶進是聰明布局還是空手接刀？.txt</t>
+          <t>2025-06-14_1134_聯合產經_吳誠文：12、28奈米可製造國安關鍵晶片 台灣持續保護.txt</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3798,7 +3823,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>房市</t>
+          <t>半導體、半導體產業、台積電、供應鏈、商業</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>地緣政治</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3845,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-06-14_1014_聯合產經_台積電赴美 呂桔誠：台美各有長處、應攜手培育人才.txt</t>
+          <t>2025-06-14_1144_聯合產經_士電股東會／未來10年重電市場需求強勁 今年營收、獲利有望成長.txt</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3825,17 +3855,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>半導體、半導體產業、台商、台積電、供應鏈、金融、美元、能源、商業、經貿、經濟、製造業</t>
+          <t>外銷、美元、能源、電力、綠能</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>關稅政策</t>
+          <t>關稅戰、川普關稅</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>不確定、不確定性、擔憂</t>
+          <t>波動</t>
         </is>
       </c>
     </row>
@@ -3852,22 +3882,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-06-14_1106_聯合產經_出生人數又破底！專家：3種房子房價將加速鬆動.txt</t>
+          <t>2025-06-14_1155_聯合產經_中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標.txt</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>房市、房價</t>
+          <t>半導體、台商、供應鏈、貿易、經濟、製造業</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>關稅戰</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>少子化、負面影響</t>
+          <t>地緣政治、恐怕</t>
         </is>
       </c>
     </row>
@@ -3884,22 +3919,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-06-14_1134_聯合產經_吳誠文：12、28奈米可製造國安關鍵晶片 台灣持續保護.txt</t>
+          <t>2025-06-14_1257_聯合產經_國定假日多四天！55%上班族提高外出消費意願.txt</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>半導體、半導體產業、台積電、供應鏈、商業</t>
+          <t>景氣、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>關稅貿易戰</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>地緣政治</t>
+          <t>負面影響</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3956,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-06-14_1144_聯合產經_士電股東會／未來10年重電市場需求強勁 今年營收、獲利有望成長.txt</t>
+          <t>2025-06-14_1302_聯合產經_台北市137件危老失效！小基地占近7成 專家曝兩招解方.txt</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3926,17 +3966,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>外銷、美元、能源、電力、綠能</t>
+          <t>不動產、房市、房價、營建</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>關稅戰、川普關稅</t>
+          <t>央行</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>波動</t>
+          <t>不安、缺工、難題</t>
         </is>
       </c>
     </row>
@@ -3953,27 +3993,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-06-14_1155_聯合產經_中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標.txt</t>
+          <t>2025-06-14_1356_聯合產經_金管會三措施助壽險接軌 IFRS17 法人看好兩檔金控股.txt</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>半導體、台商、供應鏈、貿易、經濟、製造業</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>關稅戰</t>
+          <t>不動產、外匯、金融、美元</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>地緣政治、恐怕</t>
+          <t>不確定、不確定性、波動</t>
         </is>
       </c>
     </row>
@@ -3990,27 +4025,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-06-14_1257_聯合產經_國定假日多四天！55%上班族提高外出消費意願.txt</t>
+          <t>2025-06-14_1402_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>景氣、貿易、經濟</t>
+          <t>台股、股市</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>關稅貿易戰</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>負面影響</t>
+          <t>殖利率</t>
         </is>
       </c>
     </row>
@@ -4027,27 +4057,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-06-14_1302_聯合產經_台北市137件危老失效！小基地占近7成 專家曝兩招解方.txt</t>
+          <t>2025-06-14_1402_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>不動產、房市、房價、營建</t>
+          <t>台股</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>央行</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>不安、缺工、難題</t>
+          <t>降息、殖利率</t>
         </is>
       </c>
     </row>
@@ -4064,22 +4089,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-06-14_1356_聯合產經_金管會三措施助壽險接軌 IFRS17 法人看好兩檔金控股.txt</t>
+          <t>2025-06-14_1402_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>不動產、外匯、金融、美元</t>
+          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>央行</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>不確定、不確定性、波動</t>
+          <t>波動、美中貿易戰</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4126,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-06-14_1402_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
+          <t>2025-06-14_1403_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4106,12 +4136,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>台股、股市</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>殖利率</t>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>考驗、疑慮、難題</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4158,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-06-14_1402_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
+          <t>2025-06-14_1403_聯合產經_長榮、萬海市值大躍進.txt</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4138,12 +4168,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>台股</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>降息、殖利率</t>
+          <t>美元、海運、經濟</t>
         </is>
       </c>
     </row>
@@ -4160,27 +4185,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-06-14_1402_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
+          <t>2025-06-14_1531_聯合產經_吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片.txt</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>央行</t>
+          <t>半導體、半導體產業、供應鏈、能源、商業、經濟</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>波動、美中貿易戰</t>
+          <t>地緣政治</t>
         </is>
       </c>
     </row>
@@ -4197,22 +4217,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-06-14_1403_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
+          <t>2025-06-14_1535_聯合產經_誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊.txt</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>經濟</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>考驗、疑慮、難題</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4239,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-06-14_1403_聯合產經_長榮、萬海市值大躍進.txt</t>
+          <t>2025-06-14_1709_聯合產經_緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育.txt</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4239,7 +4249,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>美元、海運、經濟</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -4256,12 +4266,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-06-14_1520_聯合產經_老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬.txt</t>
+          <t>2025-06-14_1818_聯合產經_央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」.txt</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>金融、金融市場、景氣、貿易、匯市、經濟、經濟成長</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CPI、中央銀行、央行、打炒房、打炒房措施、降息、消費者物價指數、聯準會、聯準會降息、對等關稅、關稅措施、關稅政策</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>地緣政治、波動、政治風險、動盪、通膨</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4303,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-06-14_1531_聯合產經_吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片.txt</t>
+          <t>2025-06-14_1824_聯合產經_國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說.txt</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4288,12 +4313,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>半導體、半導體產業、供應鏈、能源、商業、經濟</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>地緣政治</t>
+          <t>金融</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>中央銀行、央行</t>
         </is>
       </c>
     </row>
@@ -4305,17 +4330,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>聯合產經</t>
+          <t>聯合國際</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-06-14_1535_聯合產經_誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊.txt</t>
+          <t>2025-06-14_1421_聯合國際_歐盟27個成員國批准 收留烏克蘭難民延至2027年3月.txt</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>俄烏戰爭</t>
         </is>
       </c>
     </row>
@@ -4327,22 +4357,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>聯合產經</t>
+          <t>聯合國際</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-06-14_1709_聯合產經_緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育.txt</t>
+          <t>2025-06-14_2226_聯合國際_擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線.txt</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -4354,32 +4379,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>聯合產經</t>
+          <t>聯合國際</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-06-14_1818_聯合產經_央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」.txt</t>
+          <t>2025-06-14_2242_聯合國際_俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換.txt</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>✔ 是</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>金融、金融市場、景氣、貿易、匯市、經濟、經濟成長</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>CPI、中央銀行、央行、打炒房、打炒房措施、降息、消費者物價指數、聯準會、聯準會降息、對等關稅、關稅措施、關稅政策</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>地緣政治、波動、政治風險、動盪、通膨</t>
+          <t>✘ 否</t>
         </is>
       </c>
     </row>
@@ -4396,22 +4406,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-06-14_1824_聯合產經_國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說.txt</t>
+          <t>2025-06-14_1520_聯合產經_老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬.txt</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>金融</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>中央銀行、央行</t>
         </is>
       </c>
     </row>
